--- a/diagram_data/2020_diagram_data.xlsx
+++ b/diagram_data/2020_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,3954 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P12_Bechky_2020_ASQ_Evaluative Spillovers from Technological Change.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P11_Bhatt_2020_J Management Studies _How do Intermediaries Build Inclusive Markets  The Role of the Social Context.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P19_Breuer et al._2020_HR_Trust in Teams.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P10_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F8_P22_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P17_Chliova, Mair &amp; Vernis_2020_OrgStudies_Persistent Category Ambiguity - The case of social entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P9_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P13_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P18_Coslor, Crawford &amp; Leyshon_2020_OrgStudies_Collectors, Investors and Speculators - Gatekeeper use of Audience Categories in the Art Market.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_DiBenigno_2020_ASQ_Rapid Relationality - How Peripheral Experts Build a Foundation for Influence with Line Managers.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P19_Ganzin, Islam &amp; Suddaby_2020_OrgStudies_Spirituality and Entrepreneurship - the role of magical thinking in future oriented sensemaking.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P17_Gorbatai, Dioun &amp; Lashley_2020_OrgSci_Making Space for Emotions.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P2_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P9_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Hahl &amp; Ha_2020_OrgSci_Committed Diversification Why Authenticity Insulates Against Penalties for Diversification.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P12_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P15_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P20_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P21_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P14_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P19_Lingo_2020_J Management Studies_Entrepreneurial Leadership as Creative Brokering  The Process and Practice of.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P29_McDonald &amp; Eisenhardt_2020_ASQ_Parallel Play - Startups, Nascent Markets and Effective Business Model Design.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P32_Montgomery_2020_J Management Studies _The Millennial  Meh   Correlated Groups as Collective Agents in the Automobile.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P15_Muller_2020_OrgStudies_Escaping into the night - organizations and work at night.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P35_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P6_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P11_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P16_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P19_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P20_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P14_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P25_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P17_Sharma &amp; Bansal_2020_AMJ_Cocreating Rigorous and Relevant Knowledge.png</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P9_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P19_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P21_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P22_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F6_P23_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P24_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P26_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F4_P30_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P11_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P16_Vaast_2020_OrgStudies_A Seat at the Table and a Room of their Own - Interconnected processes of social media use at the intersection of gender and occupation.png</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P10_Van Grinsven, Sturdy &amp; Heusinkveld_2020_OrgStudies_Identities in Translation - Management Concepts as Means and Outcomes of Identity Work.png</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P16_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P36_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P23_Weiser_2020_J Management Studies _The Role of Substantive Actions in Sensemaking During Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P13_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F3_P16_Wilhem, Bullinger &amp; Chromik_2020_OrgStudies_White Coats the Coalface - Teh Standardizing Work of Professionals at the Frontline.png</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P8_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F5_P17_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F2_P12_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P2_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P18_DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.png</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P14_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P6_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P18_Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.png</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P13_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P21_Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.png</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P34_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P10_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P9_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P5_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P8_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>final_figures/2020/F1_P7_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
